--- a/data/trans_bre/P57_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_R2-Habitat-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 1,72</t>
+          <t>-8,37; 1,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 4,17</t>
+          <t>-8,21; 3,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,19; 6,22</t>
+          <t>-25,55; 4,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 10,82</t>
+          <t>-17,28; 8,56</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 1,1</t>
+          <t>-7,05; 0,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,79; -5,38</t>
+          <t>-36,86; -5,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 4,12</t>
+          <t>-22,24; 3,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,05; -10,99</t>
+          <t>-48,02; -11,64</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,62; -0,16</t>
+          <t>-9,34; 0,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,93; -5,81</t>
+          <t>-34,91; -5,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,83; -0,69</t>
+          <t>-29,0; 1,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-62,91; -10,95</t>
+          <t>-63,22; -9,85</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,28; -0,88</t>
+          <t>-9,06; -1,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,03; -2,74</t>
+          <t>-15,04; -2,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,89; -2,95</t>
+          <t>-26,65; -3,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,83; -7,37</t>
+          <t>-35,0; -6,23</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -1,59</t>
+          <t>-6,2; -1,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,07; -6,65</t>
+          <t>-27,7; -7,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,39; -5,48</t>
+          <t>-19,64; -6,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-44,58; -14,14</t>
+          <t>-45,02; -16,0</t>
         </is>
       </c>
     </row>
